--- a/cc2652p2-tcp.bom.xlsx
+++ b/cc2652p2-tcp.bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm/Nextcloud/eagle/projects/cc2652p2-tcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9E2B32-DB19-3A48-9F36-33382FFABDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20117ACA-E695-F043-82C9-12D777608538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3040" windowWidth="28040" windowHeight="17360" xr2:uid="{81F8D283-8F9B-5648-BEB7-301F56A758DB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Qty</t>
   </si>
@@ -79,24 +79,15 @@
     <t>C0805</t>
   </si>
   <si>
-    <t>C1, C5</t>
-  </si>
-  <si>
     <t>CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>R-EU_R0805</t>
   </si>
   <si>
     <t>R0805</t>
   </si>
   <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
     <t>RESISTOR, European symbol</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
@@ -148,24 +136,9 @@
     <t>Headers &amp; Wire Housings 1.27x1.27mm BTB, Hdr Unshrd, SMT, 10 Pos</t>
   </si>
   <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>CPOL-EUC</t>
-  </si>
-  <si>
-    <t>PANASONIC_C</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>POLARIZED CAPACITOR, European symbol</t>
-  </si>
-  <si>
-    <t>R2, R3</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -193,25 +166,31 @@
     <t>U1</t>
   </si>
   <si>
-    <t>ESP-01</t>
-  </si>
-  <si>
-    <t>U$3</t>
-  </si>
-  <si>
-    <t>ESP-01  Check availability</t>
-  </si>
-  <si>
     <t>USR-K6</t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
-    <t>434153017835</t>
-  </si>
-  <si>
     <t>CC2652-TCP V0.2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22  µF </t>
+  </si>
+  <si>
+    <t>WCAP-ASLL_5X5.5_865060342002</t>
+  </si>
+  <si>
+    <t>WCAP-ASLL_5X5.5(DXL)</t>
+  </si>
+  <si>
+    <t>WCAP-ASLL Aluminium Electrolytic Capacitors</t>
   </si>
 </sst>
 </file>
@@ -255,12 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -283,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB5B8A1B-D331-C34B-9065-5D257FDD4B83}" name="Tabelle1" displayName="Tabelle1" ref="B3:G19" totalsRowShown="0">
-  <autoFilter ref="B3:G19" xr:uid="{DB5B8A1B-D331-C34B-9065-5D257FDD4B83}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF2C31B3-C5F5-5343-AE65-F415B6D07014}" name="Tabelle1" displayName="Tabelle1" ref="B3:G16" totalsRowShown="0">
+  <autoFilter ref="B3:G16" xr:uid="{EF2C31B3-C5F5-5343-AE65-F415B6D07014}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B4F35637-BA79-A544-9A94-E8A4B0B62708}" name="Qty"/>
-    <tableColumn id="2" xr3:uid="{E562D638-ED7B-9845-BDF7-CABA2B531AAF}" name="Value" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F50D2922-E5FB-CA42-BAD6-CABB925F6B47}" name="Device"/>
-    <tableColumn id="4" xr3:uid="{FE06109E-75E3-7847-AD5E-EA8829ACA653}" name="Package"/>
-    <tableColumn id="5" xr3:uid="{BCDFB9C1-1DF2-8C4D-AC05-525ACF59D5A3}" name="Parts"/>
-    <tableColumn id="6" xr3:uid="{1DF6EFE8-14EA-7E47-921D-FD3DDB02EBA6}" name="Description"/>
+    <tableColumn id="1" xr3:uid="{1B8C1027-A00C-B743-B8BA-4A685338B55F}" name="Qty"/>
+    <tableColumn id="2" xr3:uid="{4E3A729A-5F0C-6A46-A0DA-629604D5A65A}" name="Value" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{47072836-FF0E-DF46-BEB1-B41A0B3E72DA}" name="Device"/>
+    <tableColumn id="4" xr3:uid="{F0C95DA4-38AF-6448-B927-18D3B11EBB11}" name="Package"/>
+    <tableColumn id="5" xr3:uid="{310A71A9-8A41-3A46-98EB-C43C37555B84}" name="Parts"/>
+    <tableColumn id="6" xr3:uid="{8CB67A0B-99C9-7B40-B0A3-10D092AE7B42}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,10 +577,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,53 +588,56 @@
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -662,7 +645,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -682,15 +665,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
+      <c r="D4" s="1">
+        <v>434153017835</v>
+      </c>
+      <c r="E4" s="1">
+        <v>434153017835</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -699,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -719,9 +702,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -733,264 +716,205 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>629105150921</v>
+      </c>
+      <c r="D13">
+        <v>629105150921</v>
+      </c>
+      <c r="E13">
+        <v>629105150921</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>330</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>629105150921</v>
-      </c>
-      <c r="D15">
-        <v>629105150921</v>
-      </c>
-      <c r="E15">
-        <v>629105150921</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/cc2652p2-tcp.bom.xlsx
+++ b/cc2652p2-tcp.bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm/Nextcloud/eagle/projects/cc2652p2-tcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20117ACA-E695-F043-82C9-12D777608538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EDCE5E-356F-A64B-BFEC-B7F81D410518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3040" windowWidth="28040" windowHeight="17360" xr2:uid="{81F8D283-8F9B-5648-BEB7-301F56A758DB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Qty</t>
   </si>
@@ -178,9 +178,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
     <t xml:space="preserve">22  µF </t>
   </si>
   <si>
@@ -191,6 +188,15 @@
   </si>
   <si>
     <t>WCAP-ASLL Aluminium Electrolytic Capacitors</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>2k7</t>
+  </si>
+  <si>
+    <t>R2, R3</t>
   </si>
 </sst>
 </file>
@@ -237,10 +243,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -263,15 +269,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF2C31B3-C5F5-5343-AE65-F415B6D07014}" name="Tabelle1" displayName="Tabelle1" ref="B3:G16" totalsRowShown="0">
-  <autoFilter ref="B3:G16" xr:uid="{EF2C31B3-C5F5-5343-AE65-F415B6D07014}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2342AF28-ADA6-DD43-BAEC-2A7752FC10B4}" name="Tabelle1" displayName="Tabelle1" ref="B3:G17" totalsRowShown="0">
+  <autoFilter ref="B3:G17" xr:uid="{2342AF28-ADA6-DD43-BAEC-2A7752FC10B4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1B8C1027-A00C-B743-B8BA-4A685338B55F}" name="Qty"/>
-    <tableColumn id="2" xr3:uid="{4E3A729A-5F0C-6A46-A0DA-629604D5A65A}" name="Value" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{47072836-FF0E-DF46-BEB1-B41A0B3E72DA}" name="Device"/>
-    <tableColumn id="4" xr3:uid="{F0C95DA4-38AF-6448-B927-18D3B11EBB11}" name="Package"/>
-    <tableColumn id="5" xr3:uid="{310A71A9-8A41-3A46-98EB-C43C37555B84}" name="Parts"/>
-    <tableColumn id="6" xr3:uid="{8CB67A0B-99C9-7B40-B0A3-10D092AE7B42}" name="Description"/>
+    <tableColumn id="1" xr3:uid="{4BF10D89-AAF2-CB45-92A2-EDD2963421BF}" name="Qty"/>
+    <tableColumn id="2" xr3:uid="{4B8B752D-3CA8-0746-9E14-2D4E4773DC60}" name="Value" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8BCB2071-1E51-A047-8F2F-E3E3B63BE3A6}" name="Device"/>
+    <tableColumn id="4" xr3:uid="{8B70BCA7-394F-B64B-AED1-0F48B8912C37}" name="Package"/>
+    <tableColumn id="5" xr3:uid="{ADBA043C-9E54-6E4E-B8FE-AAB79D6394B4}" name="Parts"/>
+    <tableColumn id="6" xr3:uid="{EFF9CD72-44ED-3241-A776-C2C150B58F0F}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -577,10 +583,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,14 +642,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -764,7 +770,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
@@ -776,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -827,60 +833,60 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>629105150921</v>
-      </c>
-      <c r="D13">
-        <v>629105150921</v>
-      </c>
-      <c r="E13">
-        <v>629105150921</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
+      <c r="C14" s="1">
+        <v>629105150921</v>
+      </c>
+      <c r="D14">
+        <v>629105150921</v>
+      </c>
+      <c r="E14">
+        <v>629105150921</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -888,16 +894,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -905,15 +914,32 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>44</v>
       </c>
     </row>
